--- a/biology/Zoologie/Cœlome/Cœlome.xlsx
+++ b/biology/Zoologie/Cœlome/Cœlome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C5%93lome</t>
+          <t>Cœlome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cœlome ou célome est la cavité générale (dite cœlomique), complètement bordée par le mésoderme, qui en forme la membrane. Les animaux qui possèdent un véritable cœlome, comme les Annélides, les Panarthropodes, les Brachiopodes, les Échinodermes, les Siponcles, les Nématozoaires, les Mollusques ou les Chordés, sont dits cœlomés ou cœlomates (un terme sans valeur taxinomique car il rassemble des taxons polyphylétiques).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C5%93lome</t>
+          <t>Cœlome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Avantages conférés par la présence d'un cœlome</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cœlome confère plusieurs avantages aux animaux. Il laisse un espace où les organes peuvent croître. Le fluide qu'il contient facilite la circulation, et peut servir à tamponner les variations de températures et à absorber les chocs. Il permet de construire un squelette hydrostatique efficace. Le fluide qui baigne les organes internes peut être filtré pour éliminer les déchets métaboliques. Enfin, il permet au tube digestif de se mouvoir indépendamment du corps de l'animal.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C5%93lome</t>
+          <t>Cœlome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Le cœlome chez l'embryon humain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'embryon humain, on distingue deux cœlomes : 
 Le cœlome intra-embryonnaire qui est creusé dans le mésoblaste des lames latérales, il se cloisonne pour donner naissance aux cavités séreuses de l'organisme : pleurale, péricardique et péritonéale.
